--- a/data/n2v/tables/model-1-1325-20230828-1.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-1.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
